--- a/CPU Scheduling Calulations.xlsx
+++ b/CPU Scheduling Calulations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e81d9941f005d71/Documents/GitHub/cs-431-hw3/CPU_Scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C608258F-943C-4F32-B95F-009F7F52EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C608258F-943C-4F32-B95F-009F7F52EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5AC8410-F3E8-4BB4-B86F-6017F19362EC}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="4140" windowWidth="12930" windowHeight="8295" xr2:uid="{EFF4ECF9-D1B6-473B-B8EA-203BAA287502}"/>
+    <workbookView xWindow="6240" yWindow="4140" windowWidth="12930" windowHeight="8295" activeTab="1" xr2:uid="{EFF4ECF9-D1B6-473B-B8EA-203BAA287502}"/>
   </bookViews>
   <sheets>
     <sheet name="FCFS" sheetId="2" r:id="rId1"/>
+    <sheet name="SJF" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Process ID</t>
   </si>
@@ -91,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -101,6 +102,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A80FCE-0534-4EE4-9EBC-1976778F5BF3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <f>B2</f>
@@ -468,11 +472,11 @@
       </c>
       <c r="E2" s="1">
         <f>C2+D2</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
         <f>D2+C2</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -487,15 +491,15 @@
       </c>
       <c r="D3" s="1">
         <f>D2+C2</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" si="0">C3+D3</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F6" si="1">D3+C3</f>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -506,19 +510,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <f>D3+C3</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -529,19 +533,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
         <f>D4+C4</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -556,38 +560,223 @@
       </c>
       <c r="D6" s="1">
         <f>D5+C5</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <f>SUM(D2:D6)/5</f>
-        <v>7</v>
-      </c>
-      <c r="E7" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="E7" s="4">
         <f t="shared" ref="E7:F7" si="2">SUM(E2:E6)/5</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145E8BF5-9627-4A52-8765-25CD5EEF0BFD}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <f>C2+D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f>D2+C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>D2+C2</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E6" si="0">C3+D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F6" si="1">D3+C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D3+C3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>D4+C4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="4">
+        <f>SUM(D2:D6)/5</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ref="E7:F7" si="2">SUM(E2:E6)/5</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
